--- a/route/timepoints/timepoints_5.xlsx
+++ b/route/timepoints/timepoints_5.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="37">
   <si>
     <t>Timepoints for Driver Position 5</t>
   </si>
   <si>
-    <t>Starting Location: 780a Passenger Terminal</t>
+    <t>Starting Location: 772b Evergreen McChord Lodging</t>
   </si>
   <si>
     <t>Stop ID</t>
@@ -34,199 +34,97 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>801a</t>
-  </si>
-  <si>
-    <t>512 Park &amp; Ride</t>
+    <t>100a</t>
+  </si>
+  <si>
+    <t>Madigan Hospital</t>
+  </si>
+  <si>
+    <t>to Passenger Terminal</t>
+  </si>
+  <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
+    <t>772b</t>
+  </si>
+  <si>
+    <t>Evergreen McChord Lodging</t>
   </si>
   <si>
     <t>to Madigan</t>
   </si>
   <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>100a</t>
-  </si>
-  <si>
-    <t>Madigan Hospital</t>
-  </si>
-  <si>
-    <t>to Joint Base Headquarters</t>
-  </si>
-  <si>
-    <t>07:20:00</t>
-  </si>
-  <si>
-    <t>300a</t>
-  </si>
-  <si>
-    <t>Post Exchange</t>
-  </si>
-  <si>
-    <t>07:30:00</t>
-  </si>
-  <si>
-    <t>315a</t>
-  </si>
-  <si>
-    <t>Joint Base Headquarters</t>
-  </si>
-  <si>
-    <t>07:40:00</t>
-  </si>
-  <si>
-    <t>300b</t>
-  </si>
-  <si>
-    <t>07:50:00</t>
-  </si>
-  <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>to McChord Field</t>
-  </si>
-  <si>
-    <t>08:10:00</t>
-  </si>
-  <si>
-    <t>780a</t>
-  </si>
-  <si>
-    <t>Passenger Terminal</t>
-  </si>
-  <si>
-    <t>08:31:20</t>
-  </si>
-  <si>
-    <t>08:50:00</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>09:10:00</t>
-  </si>
-  <si>
-    <t>09:20:00</t>
-  </si>
-  <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
-    <t>09:51:20</t>
-  </si>
-  <si>
-    <t>10:10:00</t>
-  </si>
-  <si>
-    <t>10:20:00</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>10:40:00</t>
-  </si>
-  <si>
-    <t>10:50:00</t>
-  </si>
-  <si>
-    <t>11:11:20</t>
-  </si>
-  <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
-    <t>11:40:00</t>
-  </si>
-  <si>
-    <t>11:50:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>12:10:00</t>
-  </si>
-  <si>
-    <t>12:31:20</t>
-  </si>
-  <si>
-    <t>12:50:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>13:10:00</t>
-  </si>
-  <si>
-    <t>13:20:00</t>
-  </si>
-  <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
-    <t>13:51:20</t>
-  </si>
-  <si>
-    <t>14:10:00</t>
-  </si>
-  <si>
-    <t>14:20:00</t>
-  </si>
-  <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
-    <t>14:40:00</t>
-  </si>
-  <si>
-    <t>14:50:00</t>
-  </si>
-  <si>
-    <t>15:11:20</t>
-  </si>
-  <si>
-    <t>15:30:00</t>
-  </si>
-  <si>
-    <t>15:40:00</t>
-  </si>
-  <si>
-    <t>15:50:00</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
-    <t>to Lakewood</t>
-  </si>
-  <si>
-    <t>16:10:00</t>
-  </si>
-  <si>
-    <t>16:30:00</t>
-  </si>
-  <si>
-    <t>16:50:00</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>17:10:00</t>
-  </si>
-  <si>
-    <t>17:20:00</t>
-  </si>
-  <si>
-    <t>17:30:00</t>
-  </si>
-  <si>
-    <t>17:51:20</t>
+    <t>00:30:00</t>
+  </si>
+  <si>
+    <t>to Lewis North</t>
+  </si>
+  <si>
+    <t>00:45:00</t>
+  </si>
+  <si>
+    <t>480a</t>
+  </si>
+  <si>
+    <t>Warrior Zone</t>
+  </si>
+  <si>
+    <t>01:10:00</t>
+  </si>
+  <si>
+    <t>01:35:00</t>
+  </si>
+  <si>
+    <t>01:50:00</t>
+  </si>
+  <si>
+    <t>18:15:00</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>18:45:00</t>
+  </si>
+  <si>
+    <t>19:10:00</t>
+  </si>
+  <si>
+    <t>19:35:00</t>
+  </si>
+  <si>
+    <t>19:50:00</t>
+  </si>
+  <si>
+    <t>20:05:00</t>
+  </si>
+  <si>
+    <t>20:30:00</t>
+  </si>
+  <si>
+    <t>20:55:00</t>
+  </si>
+  <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>21:25:00</t>
+  </si>
+  <si>
+    <t>21:50:00</t>
+  </si>
+  <si>
+    <t>22:55:00</t>
+  </si>
+  <si>
+    <t>23:10:00</t>
+  </si>
+  <si>
+    <t>23:25:00</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
   </si>
 </sst>
 </file>
@@ -603,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,86 +559,86 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -751,24 +649,24 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -782,217 +680,217 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1003,24 +901,24 @@
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1034,133 +932,133 @@
         <v>12</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1171,24 +1069,24 @@
         <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1202,63 +1100,63 @@
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1269,94 +1167,920 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
         <v>25</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>70</v>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/route/timepoints/timepoints_5.xlsx
+++ b/route/timepoints/timepoints_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="37">
   <si>
     <t>Timepoints for Driver Position 5</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +601,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -657,30 +657,30 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -713,44 +713,44 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -769,114 +769,114 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -890,49 +890,49 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -946,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -960,35 +960,35 @@
         <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -999,10 +999,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1013,10 +1013,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1027,80 +1027,80 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1111,10 +1111,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1125,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1139,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1153,94 +1153,94 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1251,10 +1251,10 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1265,178 +1265,178 @@
         <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1450,49 +1450,49 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1520,35 +1520,35 @@
         <v>12</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1562,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1576,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1590,21 +1590,21 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1632,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1646,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1660,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1674,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1688,7 +1688,7 @@
         <v>14</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1702,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1716,21 +1716,21 @@
         <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1758,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1772,314 +1772,6 @@
         <v>12</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>16</v>
-      </c>
-      <c r="B92" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>16</v>
-      </c>
-      <c r="B110" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/route/timepoints/timepoints_5.xlsx
+++ b/route/timepoints/timepoints_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="32">
   <si>
     <t>Timepoints for Driver Position 5</t>
   </si>
@@ -43,7 +43,7 @@
     <t>to Passenger Terminal</t>
   </si>
   <si>
-    <t>00:15:00</t>
+    <t>18:16:39</t>
   </si>
   <si>
     <t>772b</t>
@@ -55,13 +55,13 @@
     <t>to Madigan</t>
   </si>
   <si>
-    <t>00:30:00</t>
+    <t>18:33:18</t>
   </si>
   <si>
     <t>to Lewis North</t>
   </si>
   <si>
-    <t>00:45:00</t>
+    <t>18:48:18</t>
   </si>
   <si>
     <t>480a</t>
@@ -70,61 +70,46 @@
     <t>Warrior Zone</t>
   </si>
   <si>
-    <t>01:10:00</t>
-  </si>
-  <si>
-    <t>01:35:00</t>
-  </si>
-  <si>
-    <t>01:50:00</t>
-  </si>
-  <si>
-    <t>18:15:00</t>
-  </si>
-  <si>
-    <t>18:30:00</t>
-  </si>
-  <si>
-    <t>18:45:00</t>
-  </si>
-  <si>
-    <t>19:10:00</t>
-  </si>
-  <si>
-    <t>19:35:00</t>
-  </si>
-  <si>
-    <t>19:50:00</t>
-  </si>
-  <si>
-    <t>20:05:00</t>
-  </si>
-  <si>
-    <t>20:30:00</t>
-  </si>
-  <si>
-    <t>20:55:00</t>
-  </si>
-  <si>
-    <t>21:10:00</t>
-  </si>
-  <si>
-    <t>21:25:00</t>
-  </si>
-  <si>
-    <t>21:50:00</t>
-  </si>
-  <si>
-    <t>22:55:00</t>
-  </si>
-  <si>
-    <t>23:10:00</t>
-  </si>
-  <si>
-    <t>23:25:00</t>
-  </si>
-  <si>
-    <t>23:50:00</t>
+    <t>19:13:18</t>
+  </si>
+  <si>
+    <t>19:38:18</t>
+  </si>
+  <si>
+    <t>19:54:57</t>
+  </si>
+  <si>
+    <t>20:09:57</t>
+  </si>
+  <si>
+    <t>20:34:57</t>
+  </si>
+  <si>
+    <t>20:59:57</t>
+  </si>
+  <si>
+    <t>21:16:36</t>
+  </si>
+  <si>
+    <t>21:31:36</t>
+  </si>
+  <si>
+    <t>21:56:36</t>
+  </si>
+  <si>
+    <t>22:21:36</t>
+  </si>
+  <si>
+    <t>22:38:15</t>
+  </si>
+  <si>
+    <t>22:53:15</t>
+  </si>
+  <si>
+    <t>23:18:15</t>
+  </si>
+  <si>
+    <t>23:43:15</t>
   </si>
 </sst>
 </file>
@@ -501,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -887,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -901,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>21</v>
@@ -915,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -929,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>21</v>
@@ -937,10 +922,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -951,10 +936,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>12</v>
@@ -965,10 +950,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -979,10 +964,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>12</v>
@@ -999,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -1013,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>23</v>
@@ -1027,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -1041,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>23</v>
@@ -1049,10 +1034,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1063,10 +1048,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
@@ -1077,10 +1062,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1091,10 +1076,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>12</v>
@@ -1111,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -1125,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>25</v>
@@ -1139,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -1153,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>25</v>
@@ -1161,10 +1146,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -1175,10 +1160,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>12</v>
@@ -1189,10 +1174,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -1203,10 +1188,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>12</v>
@@ -1223,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -1237,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>27</v>
@@ -1251,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -1265,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>27</v>
@@ -1273,10 +1258,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -1287,10 +1272,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>12</v>
@@ -1301,10 +1286,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -1315,10 +1300,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>12</v>
@@ -1335,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
@@ -1349,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>29</v>
@@ -1363,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>29</v>
@@ -1377,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>29</v>
@@ -1385,10 +1370,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -1399,10 +1384,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>12</v>
@@ -1413,10 +1398,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -1427,10 +1412,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>12</v>
@@ -1447,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
         <v>31</v>
@@ -1461,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>31</v>
@@ -1475,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>31</v>
@@ -1489,290 +1474,10 @@
         <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
